--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2666,6 +2666,48 @@
         <v>1560</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>F65572_1556106431</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>43579.53277889751</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ricardo123456</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Aluminio</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material: óxido de alumínio, eletricidade e carbono; </t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>25</v>
+      </c>
+      <c r="J56" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
